--- a/iTreeWeb/iTreeweb组相关文档/任务文档/iTreemxc/网站组-马笑聪-20151108.xlsx
+++ b/iTreeWeb/iTreeweb组相关文档/任务文档/iTreemxc/网站组-马笑聪-20151108.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="iTree任务发布表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>队长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,62 @@
   <si>
     <t>在数据表更改的基础上，完成已经实现的功能。完成用户的编辑操作。</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一、对上一周的代码进行完善。
+  1.1.完善照片文件模块。
+  1.2.完善原有功能。
+  1.3.解决用户增加后的界面问题
+  1.4.构思表间结构，形成说明文档。
+  1.5.在数据表更改的基础上，完成已经实现的功能。完成用户的编辑操作。
+二、iTree页面迭代。
+  2.1.根据同学们提出意见，完善页面。
+  2.2.移动端访问问题。
+  2.3.解决大图加载问题。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">赵鹏： 1.1.完善照片文件模块。1.2完善原有代码.1.3构思表结构。
+马笑聪： 1.3.解决用户增加后的界面问题
+        1.4.构思表间结构，形成说明文档。
+        1.5.在数据表更改的基础上，完成已经实现的功能。完成用户的编辑操作。
+刘洋：   2.1.根据同学们提出意见，完善页面。
+        2.2.移动端访问问题。
+        2.3.解决大图加载问题。 
+  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+赵鹏：1.1.完成照片模块
+      1.2.完善原有功能
+      1.3.帮助马笑聪，共同完成数据库设计
+马笑聪：暂无
+刘洋： 2.2.能够解决前台（Github）加载图片慢的问题；
+       2.3.这周已图片加载和完善页面为主，暂不做要求。
+    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台样式不太清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搁置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -441,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -451,12 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,6 +517,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,7 +829,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:F53"/>
+      <selection activeCell="B55" sqref="B55:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,14 +843,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -868,7 +924,9 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -878,17 +936,21 @@
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="353.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -935,14 +997,14 @@
       <c r="F12" s="11"/>
     </row>
     <row r="14" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
@@ -988,7 +1050,9 @@
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -998,7 +1062,9 @@
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1008,7 +1074,9 @@
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1033,14 +1101,14 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
@@ -1086,7 +1154,9 @@
       <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -1133,14 +1203,14 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" s="8" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
@@ -1184,7 +1254,9 @@
       <c r="A36" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -1239,14 +1311,14 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" s="8" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
@@ -1280,7 +1352,9 @@
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -1329,14 +1403,14 @@
       <c r="F49" s="11"/>
     </row>
     <row r="51" spans="1:6" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" s="8" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
@@ -1380,7 +1454,9 @@
       <c r="A55" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
@@ -1420,46 +1496,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D5:F5"/>
@@ -1471,6 +1507,46 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1489,14 +1565,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -1582,13 +1658,13 @@
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
@@ -1637,14 +1713,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1710,11 +1786,11 @@
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1735,14 +1811,14 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1825,14 +1901,14 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1908,12 +1984,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:F21"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
@@ -1924,15 +2003,12 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
